--- a/BackTest/2020-01-20 BackTest CON.xlsx
+++ b/BackTest/2020-01-20 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -10978,7 +10978,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1007292.166339031</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1007292.166339031</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1007292.166339031</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1007292.166339031</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1056653.051339031</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1057053.051339031</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1057053.051339031</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1060053.051339031</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-912640.4483390314</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-911740.4483390314</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-911740.4483390314</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-911740.4483390314</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-911740.4483390314</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-912274.0579390314</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-912074.0579390314</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-914074.0579390314</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-914074.0579390314</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1140536.062139031</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1107495.472139031</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1057433.972139031</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1019387.232139031</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1089473.332139031</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1009875.547139031</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1071451.192139031</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-953306.0521390314</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1024393.382139031</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14839,10 +14839,14 @@
         <v>-7228562.869439033</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J438" t="n">
+        <v>3.176</v>
+      </c>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
@@ -14872,11 +14876,19 @@
         <v>-7228562.869439033</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="J439" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14917,19 @@
         <v>-7228562.869439033</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="J440" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,10 +14958,14 @@
         <v>-7280626.829439033</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="J441" t="n">
+        <v>3.177</v>
+      </c>
       <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
@@ -14971,11 +14995,19 @@
         <v>-7280626.829439033</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J442" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15036,19 @@
         <v>-7238575.169439033</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J443" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,10 +15077,14 @@
         <v>-7315169.264439032</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="J444" t="n">
+        <v>3.177</v>
+      </c>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
@@ -15070,11 +15114,19 @@
         <v>-7315169.264439032</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J445" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15155,19 @@
         <v>-7315169.264439032</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J446" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15196,19 @@
         <v>-7282128.674439033</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J447" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15237,19 @@
         <v>-7332190.174439033</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J448" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15278,19 @@
         <v>-7331990.174439033</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="J449" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15319,19 @@
         <v>-7370036.914439033</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="J450" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15360,19 @@
         <v>-7370036.914439033</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="J451" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15401,19 @@
         <v>-7449634.699439033</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="J452" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15442,19 @@
         <v>-7449634.699439033</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J453" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15483,19 @@
         <v>-7449634.699439033</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J454" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15524,19 @@
         <v>-7410586.729439033</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J455" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15565,19 @@
         <v>-7410786.729439033</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J456" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15606,19 @@
         <v>-7339699.399439033</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="J457" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +15647,19 @@
         <v>-7437319.324439033</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="J458" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +15688,19 @@
         <v>-7477869.139439033</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J459" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +15729,19 @@
         <v>-7406281.194439033</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="J460" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15770,19 @@
         <v>-7363528.919439033</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J461" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +15811,19 @@
         <v>-7399072.584439033</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="J462" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +15852,19 @@
         <v>-7362527.689439033</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="J463" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +15893,19 @@
         <v>-7362327.689439033</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J464" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15934,19 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="J465" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +15975,19 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J466" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16016,19 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J467" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16057,19 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J468" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +16098,19 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J469" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16139,19 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J470" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +16180,19 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J471" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16221,19 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J472" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16262,19 @@
         <v>-7515015.264439033</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J473" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16303,19 @@
         <v>-7467957.454439034</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="J474" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16344,19 @@
         <v>-7467957.454439034</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J475" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16385,19 @@
         <v>-7574087.834439034</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J476" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16426,19 @@
         <v>-7510009.114439034</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="J477" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16467,19 @@
         <v>-7510009.114439034</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J478" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16508,19 @@
         <v>-7510009.114439034</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J479" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16549,19 @@
         <v>-7561772.459439034</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J480" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16590,19 @@
         <v>-7635362.864439034</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="J481" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16631,19 @@
         <v>-7572785.989439034</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J482" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16672,19 @@
         <v>-7637865.939439034</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="J483" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,15 +16713,19 @@
         <v>-7564776.149439034</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>3.174</v>
       </c>
       <c r="J484" t="n">
-        <v>3.174</v>
-      </c>
-      <c r="K484" t="inlineStr"/>
+        <v>3.177</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,17 +16754,17 @@
         <v>-7564776.149439034</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>3.175</v>
       </c>
       <c r="J485" t="n">
-        <v>3.174</v>
+        <v>3.177</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L485" t="n">
@@ -16435,17 +16795,17 @@
         <v>-7518719.569439034</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>3.175</v>
       </c>
       <c r="J486" t="n">
-        <v>3.174</v>
+        <v>3.177</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L486" t="n">
@@ -16476,15 +16836,19 @@
         <v>-7576790.909439034</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>3.176</v>
       </c>
       <c r="J487" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K487" t="inlineStr"/>
+        <v>3.177</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16513,17 +16877,17 @@
         <v>-7544751.549439033</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>3.174</v>
       </c>
       <c r="J488" t="n">
-        <v>3.176</v>
+        <v>3.177</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L488" t="n">
@@ -16554,15 +16918,17 @@
         <v>-7630857.329439034</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>3.176</v>
+      </c>
       <c r="J489" t="n">
-        <v>3.176</v>
+        <v>3.177</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L489" t="n">
@@ -16593,15 +16959,19 @@
         <v>-7631057.329439034</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>3.174</v>
       </c>
       <c r="J490" t="n">
-        <v>3.174</v>
-      </c>
-      <c r="K490" t="inlineStr"/>
+        <v>3.177</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16630,17 +17000,17 @@
         <v>-7631057.329439034</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>3.173</v>
       </c>
       <c r="J491" t="n">
-        <v>3.174</v>
+        <v>3.177</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L491" t="n">
@@ -16671,17 +17041,17 @@
         <v>-7579994.599439033</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>3.173</v>
       </c>
       <c r="J492" t="n">
-        <v>3.174</v>
+        <v>3.177</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L492" t="n">
@@ -16712,15 +17082,19 @@
         <v>-7620043.799439033</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>3.175</v>
       </c>
       <c r="J493" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K493" t="inlineStr"/>
+        <v>3.177</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16749,17 +17123,17 @@
         <v>-7717163.109439033</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>3.174</v>
       </c>
       <c r="J494" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L494" t="n">
@@ -16790,13 +17164,13 @@
         <v>-7683621.904439033</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>3.173</v>
       </c>
       <c r="J495" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -16831,13 +17205,13 @@
         <v>-7649079.469439033</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>3.174</v>
       </c>
       <c r="J496" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -16872,13 +17246,13 @@
         <v>-7729177.869439034</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>3.176</v>
       </c>
       <c r="J497" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -16913,13 +17287,13 @@
         <v>-7657089.309439034</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>3.174</v>
       </c>
       <c r="J498" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -16954,13 +17328,13 @@
         <v>-7705148.349439034</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>3.176</v>
       </c>
       <c r="J499" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -16995,13 +17369,13 @@
         <v>-7705148.349439034</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>3.173</v>
       </c>
       <c r="J500" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17036,13 +17410,13 @@
         <v>-7624849.949439034</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>3.173</v>
       </c>
       <c r="J501" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17077,13 +17451,13 @@
         <v>-7624849.949439034</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>3.177</v>
       </c>
       <c r="J502" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17118,13 +17492,13 @@
         <v>-7751004.929439034</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>3.177</v>
       </c>
       <c r="J503" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17159,13 +17533,13 @@
         <v>-7655803.120839034</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>3.176</v>
       </c>
       <c r="J504" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17200,13 +17574,13 @@
         <v>-7329479.134439034</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>3.177</v>
       </c>
       <c r="J505" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17241,13 +17615,13 @@
         <v>-7287928.089439034</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>3.18</v>
       </c>
       <c r="J506" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17282,11 +17656,13 @@
         <v>-7340492.664439035</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>3.185</v>
+      </c>
       <c r="J507" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17321,11 +17697,13 @@
         <v>-7278416.404439035</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>3.183</v>
+      </c>
       <c r="J508" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17360,11 +17738,13 @@
         <v>-7351472.782439034</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>3.185</v>
+      </c>
       <c r="J509" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17399,11 +17779,13 @@
         <v>-7351472.782439034</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>3.182</v>
+      </c>
       <c r="J510" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17438,11 +17820,13 @@
         <v>-7315989.191439034</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>3.182</v>
+      </c>
       <c r="J511" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17477,11 +17861,13 @@
         <v>-7360043.311439035</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>3.186</v>
+      </c>
       <c r="J512" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17516,11 +17902,13 @@
         <v>-7420617.726439035</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>3.185</v>
+      </c>
       <c r="J513" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17555,11 +17943,13 @@
         <v>-7346326.706439035</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>3.182</v>
+      </c>
       <c r="J514" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17594,11 +17984,13 @@
         <v>-7420918.341439035</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>3.186</v>
+      </c>
       <c r="J515" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17633,11 +18025,13 @@
         <v>-7420918.341439035</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>3.185</v>
+      </c>
       <c r="J516" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -17672,11 +18066,13 @@
         <v>-7420918.341439035</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>3.185</v>
+      </c>
       <c r="J517" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -17711,11 +18107,13 @@
         <v>-7420918.341439035</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>3.185</v>
+      </c>
       <c r="J518" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -17750,11 +18148,13 @@
         <v>-7420918.341439035</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>3.185</v>
+      </c>
       <c r="J519" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -17789,11 +18189,13 @@
         <v>-7420918.341439035</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>3.185</v>
+      </c>
       <c r="J520" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -17828,11 +18230,13 @@
         <v>-6983345.931439035</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>3.185</v>
+      </c>
       <c r="J521" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -17867,11 +18271,13 @@
         <v>-482527.9314390346</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>3.187</v>
+      </c>
       <c r="J522" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -17910,7 +18316,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -17949,7 +18355,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -17988,7 +18394,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18027,7 +18433,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18066,7 +18472,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18105,7 +18511,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18144,7 +18550,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18183,7 +18589,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18222,7 +18628,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18261,7 +18667,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18300,7 +18706,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18339,7 +18745,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18378,7 +18784,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18417,7 +18823,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18456,7 +18862,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18495,7 +18901,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18534,7 +18940,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18573,7 +18979,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18612,7 +19018,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -18651,7 +19057,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -18690,7 +19096,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -18729,7 +19135,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -18768,7 +19174,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -18807,7 +19213,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -18846,7 +19252,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -18885,7 +19291,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -18924,7 +19330,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -18963,7 +19369,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19002,7 +19408,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19041,7 +19447,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19080,7 +19486,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19119,7 +19525,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19158,7 +19564,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19197,7 +19603,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19236,7 +19642,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19275,7 +19681,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19314,7 +19720,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19353,7 +19759,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19392,7 +19798,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19431,7 +19837,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19466,19 +19872,19 @@
         <v>-410133.4035390344</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>3.175</v>
+        <v>3.177</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L563" t="n">
-        <v>1</v>
+        <v>0.9959442870632672</v>
       </c>
       <c r="M563" t="inlineStr"/>
     </row>
@@ -19505,17 +19911,11 @@
         <v>-304003.0235390344</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19544,17 +19944,11 @@
         <v>-386904.8675390344</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19583,17 +19977,11 @@
         <v>-429757.5115390344</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19622,17 +20010,11 @@
         <v>-390108.8035390344</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19661,17 +20043,11 @@
         <v>-466674.8645390344</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19700,17 +20076,11 @@
         <v>-382171.0525390344</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19739,17 +20109,11 @@
         <v>-382171.0525390344</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19778,17 +20142,11 @@
         <v>-449053.2165390344</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19820,14 +20178,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19856,17 +20208,11 @@
         <v>-493107.3365390344</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19898,14 +20244,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19937,14 +20277,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19976,14 +20310,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20012,17 +20340,11 @@
         <v>-574407.2125390344</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20051,17 +20373,11 @@
         <v>-659712.0085390344</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20090,17 +20406,11 @@
         <v>-733803.0285390344</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20129,17 +20439,11 @@
         <v>-688547.4325390344</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20168,17 +20472,11 @@
         <v>-777857.1485390344</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20207,17 +20505,11 @@
         <v>-670124.8005390344</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20246,17 +20538,11 @@
         <v>-569601.3085390344</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20285,17 +20571,11 @@
         <v>-629274.6165390344</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20324,17 +20604,11 @@
         <v>-559188.5165390344</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20363,17 +20637,11 @@
         <v>-650901.1845390345</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20402,17 +20670,11 @@
         <v>-724191.2205390345</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20441,17 +20703,11 @@
         <v>-690950.3845390345</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20480,17 +20736,11 @@
         <v>-763439.4365390345</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20519,17 +20769,11 @@
         <v>-763439.4365390345</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20558,17 +20802,11 @@
         <v>-853550.1365390344</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20597,17 +20835,11 @@
         <v>-730198.6005390345</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20636,17 +20868,11 @@
         <v>-729782.0885390345</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20675,17 +20901,11 @@
         <v>-770231.7805390345</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20714,17 +20934,11 @@
         <v>-770231.7805390345</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20753,17 +20967,11 @@
         <v>-846725.7525390345</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20792,17 +21000,11 @@
         <v>-846725.7525390345</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20831,17 +21033,11 @@
         <v>-780644.5725390345</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20870,17 +21066,11 @@
         <v>-864347.4005390345</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20909,17 +21099,11 @@
         <v>-778241.6205390345</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20948,17 +21132,11 @@
         <v>-886774.9525390344</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20987,17 +21165,11 @@
         <v>-785450.4765390344</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21026,17 +21198,11 @@
         <v>-842720.8325390344</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21065,17 +21231,11 @@
         <v>-747043.2935390344</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21104,17 +21264,11 @@
         <v>-785090.0335390344</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21143,17 +21297,11 @@
         <v>-702989.1735390344</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21182,17 +21330,11 @@
         <v>-910444.0295390345</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21221,17 +21363,11 @@
         <v>-761461.0055390345</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21260,17 +21396,11 @@
         <v>-857979.5775390345</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21299,17 +21429,11 @@
         <v>-857979.5775390345</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21338,17 +21462,11 @@
         <v>-1016891.815439034</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21377,17 +21495,11 @@
         <v>-981248.0274390345</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21416,17 +21528,11 @@
         <v>-981248.0274390345</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21455,17 +21561,11 @@
         <v>-981248.0274390345</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21494,17 +21594,11 @@
         <v>-1044926.255439035</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21533,17 +21627,11 @@
         <v>-1044926.255439035</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21572,17 +21660,11 @@
         <v>-920773.7354390345</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21611,17 +21693,11 @@
         <v>-957218.5074390345</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21650,17 +21726,11 @@
         <v>-957218.5074390345</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21689,17 +21759,11 @@
         <v>-919972.7514390345</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21728,17 +21792,11 @@
         <v>-919972.7514390345</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21767,17 +21825,11 @@
         <v>-919972.7514390345</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21806,17 +21858,11 @@
         <v>-974039.1714390345</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21845,17 +21891,11 @@
         <v>-974039.1714390345</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21884,17 +21924,11 @@
         <v>-894653.6474390345</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21923,17 +21957,11 @@
         <v>-967650.8131390346</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21962,17 +21990,11 @@
         <v>-967650.8131390346</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22001,17 +22023,11 @@
         <v>-967650.8131390346</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22040,17 +22056,11 @@
         <v>-967650.8131390346</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22079,17 +22089,11 @@
         <v>-967650.8131390346</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22118,17 +22122,11 @@
         <v>-967650.8131390346</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22157,17 +22155,11 @@
         <v>-967650.8131390346</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22196,17 +22188,11 @@
         <v>-967650.8131390346</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22235,17 +22221,11 @@
         <v>-918803.0891390345</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22274,17 +22254,11 @@
         <v>-851068.0927390344</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22313,17 +22287,11 @@
         <v>-955596.5047390345</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22352,17 +22320,11 @@
         <v>-1021424.224139035</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22391,17 +22353,11 @@
         <v>-990586.3401390346</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22430,17 +22386,11 @@
         <v>-949335.6641390346</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22469,17 +22419,11 @@
         <v>-1123950.176139035</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22508,17 +22452,11 @@
         <v>-1054665.060139035</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22547,17 +22485,11 @@
         <v>-1110333.448139035</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22586,17 +22518,11 @@
         <v>-1042650.300139035</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22625,17 +22551,11 @@
         <v>-1146377.728139035</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22664,17 +22584,11 @@
         <v>-1077893.596139035</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22703,17 +22617,11 @@
         <v>-1125552.144139035</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22742,17 +22650,11 @@
         <v>-1045053.252139035</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22781,17 +22683,11 @@
         <v>-1140770.840139035</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22820,17 +22716,11 @@
         <v>-1035441.444139035</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22859,17 +22749,11 @@
         <v>-1082981.650139035</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22898,17 +22782,11 @@
         <v>-983259.1421390347</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22937,17 +22815,11 @@
         <v>-983259.1421390347</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22976,17 +22848,11 @@
         <v>-983259.1421390347</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23015,17 +22881,11 @@
         <v>-912372.0581390347</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23054,17 +22914,11 @@
         <v>-972846.3501390347</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23093,17 +22947,11 @@
         <v>-1127436.262139035</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23132,17 +22980,11 @@
         <v>-1044534.418139035</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23171,17 +23013,11 @@
         <v>-1087387.062139035</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23210,17 +23046,11 @@
         <v>-1047738.354139035</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23249,17 +23079,11 @@
         <v>-1123431.342139035</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23288,17 +23112,11 @@
         <v>-1207935.154139035</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23327,17 +23145,11 @@
         <v>-1365729.002139035</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23366,17 +23178,11 @@
         <v>-1472660.366139035</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23405,17 +23211,11 @@
         <v>-1409783.122139035</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23444,17 +23244,11 @@
         <v>-1356517.686139035</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23483,17 +23277,11 @@
         <v>-1428205.754139035</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23522,17 +23310,11 @@
         <v>-1306456.186139035</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23561,17 +23343,11 @@
         <v>-1306456.186139035</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23600,17 +23376,11 @@
         <v>-1351711.782139035</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23639,17 +23409,11 @@
         <v>-1441021.498139035</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23678,17 +23442,11 @@
         <v>-1333289.150139035</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23717,17 +23475,11 @@
         <v>-1232765.658139035</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23756,17 +23508,11 @@
         <v>-1232765.658139035</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23795,17 +23541,11 @@
         <v>-1324478.326139035</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23834,17 +23574,11 @@
         <v>-1324478.326139035</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23873,17 +23607,11 @@
         <v>-410327.9442390347</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23912,17 +23640,11 @@
         <v>-337838.8922390346</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23954,14 +23676,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23990,19 +23706,13 @@
         <v>-797765.6692390346</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
-        <v>1.002874015748032</v>
+        <v>1</v>
       </c>
       <c r="M679" t="inlineStr"/>
     </row>
@@ -24029,7 +23739,7 @@
         <v>-720470.7132390346</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24062,7 +23772,7 @@
         <v>-760920.4052390347</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24095,7 +23805,7 @@
         <v>-847827.1692390346</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24128,7 +23838,7 @@
         <v>-924736.3238390347</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24161,7 +23871,7 @@
         <v>-925553.3278390346</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24227,7 +23937,7 @@
         <v>-894314.9518390347</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24260,7 +23970,7 @@
         <v>-978017.7798390347</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24293,7 +24003,7 @@
         <v>-783378.6678390347</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24326,7 +24036,7 @@
         <v>-783378.6678390347</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24359,7 +24069,7 @@
         <v>-840649.0238390347</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24392,7 +24102,7 @@
         <v>-745732.4198390347</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24425,7 +24135,7 @@
         <v>-745732.4198390347</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24458,7 +24168,7 @@
         <v>-745732.4198390347</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24491,7 +24201,7 @@
         <v>-843852.9598390347</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24524,7 +24234,7 @@
         <v>-734518.6438390347</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24557,7 +24267,7 @@
         <v>-828634.2638390347</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24590,7 +24300,7 @@
         <v>-773766.8598390347</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24623,7 +24333,7 @@
         <v>-774191.3818390347</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24656,7 +24366,7 @@
         <v>-677672.8098390347</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24689,7 +24399,7 @@
         <v>-597974.9018390346</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24722,7 +24432,7 @@
         <v>-656046.2418390346</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24755,7 +24465,7 @@
         <v>-793385.3718390346</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24788,7 +24498,7 @@
         <v>-793385.3718390346</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24821,7 +24531,7 @@
         <v>-680446.6278390347</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24854,7 +24564,7 @@
         <v>-581525.1038390347</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24887,7 +24597,7 @@
         <v>-645203.3318390347</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24920,7 +24630,7 @@
         <v>-593539.8638390347</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24986,7 +24696,7 @@
         <v>-642800.3798390348</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25052,7 +24762,7 @@
         <v>-692861.8798390348</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25283,7 +24993,7 @@
         <v>-582449.0878390349</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25316,7 +25026,7 @@
         <v>-547606.2838390348</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25349,7 +25059,7 @@
         <v>-623699.7638390348</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25382,7 +25092,7 @@
         <v>-535191.0318390349</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25415,7 +25125,7 @@
         <v>-597018.9868390348</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25448,7 +25158,7 @@
         <v>-494893.5268390348</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25481,7 +25191,7 @@
         <v>-494893.5268390348</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25514,7 +25224,7 @@
         <v>-407031.8028390348</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25547,7 +25257,7 @@
         <v>-341751.6068390348</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25580,7 +25290,7 @@
         <v>-446280.0188390348</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25613,7 +25323,7 @@
         <v>-498744.4708390348</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25646,7 +25356,7 @@
         <v>-467906.5868390348</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25679,7 +25389,7 @@
         <v>-509157.2628390348</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25712,7 +25422,7 @@
         <v>-415842.6268390348</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25745,7 +25455,7 @@
         <v>-566427.6188390348</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25778,7 +25488,7 @@
         <v>-504746.9199390348</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25811,7 +25521,7 @@
         <v>-437063.7719390348</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25844,7 +25554,7 @@
         <v>-540791.1999390348</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25877,7 +25587,7 @@
         <v>-472307.0679390348</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25910,7 +25620,7 @@
         <v>-424648.5199390348</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25943,7 +25653,7 @@
         <v>-505147.4119390348</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25976,7 +25686,7 @@
         <v>-409429.8239390348</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26009,7 +25719,7 @@
         <v>-515271.8499390348</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26042,7 +25752,7 @@
         <v>-468414.2859390348</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26075,7 +25785,7 @@
         <v>-568136.7939390348</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26108,7 +25818,7 @@
         <v>-536497.9259390348</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26141,7 +25851,7 @@
         <v>-624205.6739390348</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26174,7 +25884,7 @@
         <v>-492844.2979390348</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26207,7 +25917,7 @@
         <v>-492844.2979390348</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26240,7 +25950,7 @@
         <v>-598974.6779390348</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26273,7 +25983,7 @@
         <v>-516072.8339390348</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26306,7 +26016,7 @@
         <v>-558925.4779390348</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26339,7 +26049,7 @@
         <v>-519276.7699390348</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26372,7 +26082,7 @@
         <v>-443583.7819390348</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26405,7 +26115,7 @@
         <v>-468673.3876390348</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26438,7 +26148,7 @@
         <v>-293257.8916390348</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26471,7 +26181,7 @@
         <v>-360140.0556390348</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26504,7 +26214,7 @@
         <v>-190331.4476390348</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26537,7 +26247,7 @@
         <v>-246596.8836390348</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26570,7 +26280,7 @@
         <v>-174908.8156390348</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26603,7 +26313,7 @@
         <v>-96812.87563903481</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26636,7 +26346,7 @@
         <v>-53159.24763903482</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26669,7 +26379,7 @@
         <v>-53159.24763903482</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26702,7 +26412,7 @@
         <v>20931.77236096519</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26735,7 +26445,7 @@
         <v>-24323.82363903481</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26768,7 +26478,7 @@
         <v>64985.89236096519</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26834,7 +26544,7 @@
         <v>165509.3843609652</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26867,7 +26577,7 @@
         <v>105836.0763609652</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26900,7 +26610,7 @@
         <v>175922.1763609652</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26933,7 +26643,7 @@
         <v>10919.47236096521</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26999,7 +26709,7 @@
         <v>-94810.41563903479</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27032,7 +26742,7 @@
         <v>-35938.09163903479</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27065,7 +26775,7 @@
         <v>-170503.4036390348</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27098,7 +26808,7 @@
         <v>-124446.8236390348</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27131,7 +26841,7 @@
         <v>-201741.7796390348</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27164,7 +26874,7 @@
         <v>-201741.7796390348</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27197,7 +26907,7 @@
         <v>-202743.0096390348</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27230,7 +26940,7 @@
         <v>-126249.0376390348</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27263,7 +26973,7 @@
         <v>-28929.48163903484</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27296,7 +27006,7 @@
         <v>-198978.9490390348</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27329,7 +27039,7 @@
         <v>-115276.1210390348</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27362,7 +27072,7 @@
         <v>-29170.34103903484</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27395,7 +27105,7 @@
         <v>79362.99096096515</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27428,7 +27138,7 @@
         <v>-79231.84103903484</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27461,7 +27171,7 @@
         <v>15684.76296096516</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27494,7 +27204,7 @@
         <v>53731.50296096516</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27527,7 +27237,7 @@
         <v>-29042.18403903484</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27560,7 +27270,7 @@
         <v>69078.35596096516</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27593,7 +27303,7 @@
         <v>-40255.96003903485</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27626,7 +27336,7 @@
         <v>53859.65996096515</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27758,7 +27468,7 @@
         <v>73884.25996096514</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27791,7 +27501,7 @@
         <v>-18629.39203903486</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27923,7 +27633,7 @@
         <v>-194845.8720390349</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27956,7 +27666,7 @@
         <v>-131167.6440390349</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27989,7 +27699,7 @@
         <v>-232091.6280390349</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28022,7 +27732,7 @@
         <v>-232091.6280390349</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28055,7 +27765,7 @@
         <v>-283018.1910390349</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28088,7 +27798,7 @@
         <v>-245772.4350390349</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28121,7 +27831,7 @@
         <v>-156863.2110390349</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28154,7 +27864,7 @@
         <v>-102796.7910390349</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28187,7 +27897,7 @@
         <v>-102796.7910390349</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28220,7 +27930,7 @@
         <v>-102796.7910390349</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28253,7 +27963,7 @@
         <v>-102796.7910390349</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28286,7 +27996,7 @@
         <v>-67953.9870390349</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28319,7 +28029,7 @@
         <v>-242993.2925390349</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28352,7 +28062,7 @@
         <v>-120442.7405390349</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28385,7 +28095,7 @@
         <v>-181718.0165390349</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28418,7 +28128,7 @@
         <v>-79592.55653903489</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28451,7 +28161,7 @@
         <v>-79592.55653903489</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28484,7 +28194,7 @@
         <v>-40744.83253903489</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28517,7 +28227,7 @@
         <v>-106025.0285390349</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28550,7 +28260,7 @@
         <v>-1496.616539034891</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28748,7 +28458,7 @@
         <v>-159794.1156390349</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28781,7 +28491,7 @@
         <v>-362379.2316390349</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28814,7 +28524,7 @@
         <v>-306710.843639035</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28847,7 +28557,7 @@
         <v>-13213.72143903497</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28880,7 +28590,7 @@
         <v>-525016.042539035</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28913,7 +28623,7 @@
         <v>-456531.910539035</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28946,7 +28656,7 @@
         <v>-504190.458539035</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28979,7 +28689,7 @@
         <v>-423691.566539035</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29012,7 +28722,7 @@
         <v>-2939278.700239035</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29045,7 +28755,7 @@
         <v>-1753238.438139035</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29078,7 +28788,7 @@
         <v>-1647909.042139035</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29111,7 +28821,7 @@
         <v>-1694766.606139035</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29144,7 +28854,7 @@
         <v>-685470.3287390354</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29177,7 +28887,7 @@
         <v>-756909.1967390354</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29210,7 +28920,7 @@
         <v>-844616.9447390354</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29243,7 +28953,7 @@
         <v>-773729.8607390354</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29276,7 +28986,7 @@
         <v>-713255.5687390354</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29309,7 +29019,7 @@
         <v>-639216.0089390354</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29342,7 +29052,7 @@
         <v>-794516.6627390353</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29375,7 +29085,7 @@
         <v>-1255736.361139035</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29408,7 +29118,7 @@
         <v>-1172834.517139035</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -32411,14 +32121,10 @@
         <v>-5276042.219639036</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
-      </c>
-      <c r="I934" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="J934" t="n">
-        <v>3.137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
@@ -32448,19 +32154,11 @@
         <v>-5358944.063639035</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
-      </c>
-      <c r="I935" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="J935" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32492,14 +32190,8 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32594,212 +32286,196 @@
         <v>-5359673.545739036</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
-      </c>
-      <c r="I939" t="n">
+        <v>0</v>
+      </c>
+      <c r="I939" t="inlineStr"/>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
+      <c r="L939" t="n">
+        <v>1</v>
+      </c>
+      <c r="M939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C940" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="D940" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="E940" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F940" t="n">
+        <v>91408.29399999999</v>
+      </c>
+      <c r="G940" t="n">
+        <v>-5451081.839739036</v>
+      </c>
+      <c r="H940" t="n">
+        <v>0</v>
+      </c>
+      <c r="I940" t="inlineStr"/>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
+      <c r="L940" t="n">
+        <v>1</v>
+      </c>
+      <c r="M940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="C941" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="D941" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="E941" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="F941" t="n">
+        <v>66882.164</v>
+      </c>
+      <c r="G941" t="n">
+        <v>-5451081.839739036</v>
+      </c>
+      <c r="H941" t="n">
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
+      <c r="L941" t="n">
+        <v>1</v>
+      </c>
+      <c r="M941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="C942" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="D942" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="E942" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="F942" t="n">
+        <v>106931.364</v>
+      </c>
+      <c r="G942" t="n">
+        <v>-5344150.475739036</v>
+      </c>
+      <c r="H942" t="n">
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="J942" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K942" t="inlineStr"/>
+      <c r="L942" t="n">
+        <v>1</v>
+      </c>
+      <c r="M942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="C943" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="D943" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="E943" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="F943" t="n">
+        <v>62877.244</v>
+      </c>
+      <c r="G943" t="n">
+        <v>-5407027.719739036</v>
+      </c>
+      <c r="H943" t="n">
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="J943" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L943" t="n">
+        <v>1</v>
+      </c>
+      <c r="M943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="C944" t="n">
         <v>3.147</v>
       </c>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
+      <c r="D944" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="E944" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="F944" t="n">
+        <v>348679.593</v>
+      </c>
+      <c r="G944" t="n">
+        <v>-5058348.126739035</v>
+      </c>
+      <c r="H944" t="n">
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="J944" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K944" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L939" t="n">
-        <v>1</v>
-      </c>
-      <c r="M939" t="inlineStr"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="1" t="n">
-        <v>938</v>
-      </c>
-      <c r="B940" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="C940" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="D940" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="E940" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F940" t="n">
-        <v>91408.29399999999</v>
-      </c>
-      <c r="G940" t="n">
-        <v>-5451081.839739036</v>
-      </c>
-      <c r="H940" t="n">
-        <v>2</v>
-      </c>
-      <c r="I940" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L940" t="n">
-        <v>1</v>
-      </c>
-      <c r="M940" t="inlineStr"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="1" t="n">
-        <v>939</v>
-      </c>
-      <c r="B941" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="C941" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="D941" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="E941" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="F941" t="n">
-        <v>66882.164</v>
-      </c>
-      <c r="G941" t="n">
-        <v>-5451081.839739036</v>
-      </c>
-      <c r="H941" t="n">
-        <v>2</v>
-      </c>
-      <c r="I941" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L941" t="n">
-        <v>1</v>
-      </c>
-      <c r="M941" t="inlineStr"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="1" t="n">
-        <v>940</v>
-      </c>
-      <c r="B942" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="C942" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="D942" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="E942" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="F942" t="n">
-        <v>106931.364</v>
-      </c>
-      <c r="G942" t="n">
-        <v>-5344150.475739036</v>
-      </c>
-      <c r="H942" t="n">
-        <v>2</v>
-      </c>
-      <c r="I942" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L942" t="n">
-        <v>1</v>
-      </c>
-      <c r="M942" t="inlineStr"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="1" t="n">
-        <v>941</v>
-      </c>
-      <c r="B943" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="C943" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="D943" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="E943" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="F943" t="n">
-        <v>62877.244</v>
-      </c>
-      <c r="G943" t="n">
-        <v>-5407027.719739036</v>
-      </c>
-      <c r="H943" t="n">
-        <v>2</v>
-      </c>
-      <c r="I943" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L943" t="n">
-        <v>1</v>
-      </c>
-      <c r="M943" t="inlineStr"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="1" t="n">
-        <v>942</v>
-      </c>
-      <c r="B944" t="n">
-        <v>3.131</v>
-      </c>
-      <c r="C944" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="D944" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="E944" t="n">
-        <v>3.105</v>
-      </c>
-      <c r="F944" t="n">
-        <v>348679.593</v>
-      </c>
-      <c r="G944" t="n">
-        <v>-5058348.126739035</v>
-      </c>
-      <c r="H944" t="n">
-        <v>2</v>
-      </c>
-      <c r="I944" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32828,12 +32504,14 @@
         <v>-5136444.066739036</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I945" t="n">
         <v>3.147</v>
       </c>
-      <c r="J945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32867,12 +32545,14 @@
         <v>-5092790.438739036</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I946" t="n">
         <v>3.136</v>
       </c>
-      <c r="J946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32906,12 +32586,14 @@
         <v>-5092790.438739036</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I947" t="n">
         <v>3.146</v>
       </c>
-      <c r="J947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32945,12 +32627,12 @@
         <v>-5166881.458739036</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
-      </c>
-      <c r="I948" t="n">
-        <v>3.146</v>
-      </c>
-      <c r="J948" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32984,12 +32666,12 @@
         <v>-5121625.862739036</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
-      </c>
-      <c r="I949" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="J949" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33023,12 +32705,12 @@
         <v>-5032316.146739036</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
-      </c>
-      <c r="I950" t="n">
-        <v>3.145</v>
-      </c>
-      <c r="J950" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33062,12 +32744,12 @@
         <v>-5032316.146739036</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
-      </c>
-      <c r="I951" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="J951" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33101,12 +32783,12 @@
         <v>-4931095.798739036</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
-      </c>
-      <c r="I952" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="J952" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33140,12 +32822,14 @@
         <v>-4931095.798739036</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I953" t="n">
         <v>3.15</v>
       </c>
-      <c r="J953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33179,12 +32863,12 @@
         <v>-5092894.566739036</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
-      </c>
-      <c r="I954" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J954" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33218,12 +32902,12 @@
         <v>-5019604.530739035</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
-      </c>
-      <c r="I955" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="J955" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33257,12 +32941,12 @@
         <v>-5052845.366739036</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
-      </c>
-      <c r="I956" t="n">
-        <v>3.145</v>
-      </c>
-      <c r="J956" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33296,12 +32980,14 @@
         <v>-4980356.314739035</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I957" t="n">
         <v>3.138</v>
       </c>
-      <c r="J957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33335,12 +33021,14 @@
         <v>-5039228.638739035</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>3.139</v>
       </c>
-      <c r="J958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33374,12 +33062,14 @@
         <v>-5039228.638739035</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I959" t="n">
         <v>3.132</v>
       </c>
-      <c r="J959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33413,12 +33103,14 @@
         <v>-4949117.938739035</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I960" t="n">
         <v>3.132</v>
       </c>
-      <c r="J960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33452,12 +33144,14 @@
         <v>-4903061.358739035</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I961" t="n">
         <v>3.137</v>
       </c>
-      <c r="J961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33491,12 +33185,14 @@
         <v>-4824983.807739035</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I962" t="n">
         <v>3.142</v>
       </c>
-      <c r="J962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33530,12 +33226,14 @@
         <v>-4865433.499739035</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I963" t="n">
         <v>3.143</v>
       </c>
-      <c r="J963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33569,12 +33267,12 @@
         <v>-7263089.927739035</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
-      </c>
-      <c r="I964" t="n">
-        <v>3.142</v>
-      </c>
-      <c r="J964" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33608,12 +33306,12 @@
         <v>-5714102.753839036</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
-      </c>
-      <c r="I965" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="J965" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33647,12 +33345,14 @@
         <v>-5811422.309839035</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I966" t="n">
         <v>3.15</v>
       </c>
-      <c r="J966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33686,12 +33386,14 @@
         <v>-5661638.301839035</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I967" t="n">
         <v>3.141</v>
       </c>
-      <c r="J967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33725,12 +33427,12 @@
         <v>-5661638.301839035</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
-      </c>
-      <c r="I968" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="J968" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33764,10 +33466,14 @@
         <v>-5770171.633839035</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="J969" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33801,12 +33507,12 @@
         <v>-5668847.157839036</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
-      </c>
-      <c r="I970" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="J970" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33840,12 +33546,14 @@
         <v>-5726117.513839035</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I971" t="n">
         <v>3.141</v>
       </c>
-      <c r="J971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33879,12 +33587,14 @@
         <v>-5726117.513839035</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I972" t="n">
         <v>3.131</v>
       </c>
-      <c r="J972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33918,12 +33628,14 @@
         <v>-5688070.773839035</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I973" t="n">
         <v>3.131</v>
       </c>
-      <c r="J973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33957,12 +33669,14 @@
         <v>-5605969.913839035</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I974" t="n">
         <v>3.141</v>
       </c>
-      <c r="J974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33996,12 +33710,14 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I975" t="n">
         <v>3.147</v>
       </c>
-      <c r="J975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34035,12 +33751,14 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I976" t="n">
         <v>3.146</v>
       </c>
-      <c r="J976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34074,12 +33792,14 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I977" t="n">
         <v>3.146</v>
       </c>
-      <c r="J977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34113,12 +33833,14 @@
         <v>-5717707.181839035</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I978" t="n">
         <v>3.146</v>
       </c>
-      <c r="J978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34152,12 +33874,12 @@
         <v>-5797405.089839035</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
-      </c>
-      <c r="I979" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="J979" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34191,12 +33913,12 @@
         <v>-5855476.429839035</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
-      </c>
-      <c r="I980" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J980" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34230,12 +33952,12 @@
         <v>-5855476.429839035</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
-      </c>
-      <c r="I981" t="n">
-        <v>3.144</v>
-      </c>
-      <c r="J981" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34269,12 +33991,12 @@
         <v>-5762932.641839035</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
-      </c>
-      <c r="I982" t="n">
-        <v>3.144</v>
-      </c>
-      <c r="J982" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34308,12 +34030,12 @@
         <v>-5875871.385839035</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
-      </c>
-      <c r="I983" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J983" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34350,7 +34072,9 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34387,7 +34111,9 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34424,7 +34150,9 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34461,7 +34189,9 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34498,7 +34228,9 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34535,7 +34267,9 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34547,6 +34281,6 @@
       <c r="M989" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest CON.xlsx
+++ b/BackTest/2020-01-20 BackTest CON.xlsx
@@ -7282,7 +7282,7 @@
         <v>-886172.8406000005</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-954256.4806000005</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-875159.3106000004</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-740493.8756000004</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-815085.5106000004</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-861642.7056000003</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-800567.6756000003</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-876661.1556000003</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-908557.5289390316</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-908557.5289390316</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-841475.1189390316</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-906054.4539390316</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-961622.7189390316</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-929082.7439390316</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-872397.1059390316</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-922959.2209390316</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1001055.160939032</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-947489.3559390315</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-980029.3309390314</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-853373.7359390315</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-918954.3009390314</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-866890.3409390314</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-866890.3409390314</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-748244.5859390314</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-817830.0709390314</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-866389.7259390315</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-899430.3159390314</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-957501.6559390314</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-938774.6499390315</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-820629.5099390314</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-891716.8399390314</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-835147.3449390314</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-997622.3043390313</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-997622.3043390313</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-998022.3043390313</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-998022.3043390313</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-998022.3043390313</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-997517.6843390313</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1034563.194339031</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1034563.194339031</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-962288.6343390313</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1009995.241339031</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-7017352.705339033</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-7212408.055339033</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-7212408.055339033</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-7274484.315339033</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-7274284.315339033</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-7308326.135339033</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-7308326.135339033</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-7273283.085339033</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-7333662.076239033</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-7218358.505939033</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15796,14 +15796,10 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J467" t="n">
-        <v>3.176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
@@ -15836,506 +15832,430 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K468" t="inlineStr">
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="C469" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="D469" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E469" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="F469" t="n">
+        <v>75792.86500000001</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-7405881.194439033</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="C470" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="D470" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E470" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="F470" t="n">
+        <v>69084.87</v>
+      </c>
+      <c r="G470" t="n">
+        <v>-7405881.194439033</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="C471" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="D471" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E471" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="F471" t="n">
+        <v>122150.06</v>
+      </c>
+      <c r="G471" t="n">
+        <v>-7405881.194439033</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="C472" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="D472" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E472" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="F472" t="n">
+        <v>54567.035</v>
+      </c>
+      <c r="G472" t="n">
+        <v>-7405881.194439033</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="C473" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="D473" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E473" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="F473" t="n">
+        <v>109134.07</v>
+      </c>
+      <c r="G473" t="n">
+        <v>-7515015.264439033</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="C474" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="D474" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E474" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="F474" t="n">
+        <v>47057.81</v>
+      </c>
+      <c r="G474" t="n">
+        <v>-7467957.454439034</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="C475" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="D475" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E475" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="F475" t="n">
+        <v>37546.125</v>
+      </c>
+      <c r="G475" t="n">
+        <v>-7467957.454439034</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="C476" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="D476" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E476" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="F476" t="n">
+        <v>106130.38</v>
+      </c>
+      <c r="G476" t="n">
+        <v>-7574087.834439034</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="C477" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="D477" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E477" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="F477" t="n">
+        <v>64078.72</v>
+      </c>
+      <c r="G477" t="n">
+        <v>-7510009.114439034</v>
+      </c>
+      <c r="H477" t="n">
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="J477" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="C478" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="D478" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E478" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="F478" t="n">
+        <v>38547.355</v>
+      </c>
+      <c r="G478" t="n">
+        <v>-7510009.114439034</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="K478" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="C479" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="D479" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="E479" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="F479" t="n">
+        <v>77094.71000000001</v>
+      </c>
+      <c r="G479" t="n">
+        <v>-7510009.114439034</v>
+      </c>
+      <c r="H479" t="n">
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J479" t="n">
         <v>3.175</v>
       </c>
-      <c r="C469" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D469" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E469" t="n">
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="C480" t="n">
         <v>3.175</v>
       </c>
-      <c r="F469" t="n">
-        <v>75792.86500000001</v>
-      </c>
-      <c r="G469" t="n">
-        <v>-7405881.194439033</v>
-      </c>
-      <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J469" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K469" t="inlineStr">
+      <c r="D480" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="E480" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="F480" t="n">
+        <v>51763.345</v>
+      </c>
+      <c r="G480" t="n">
+        <v>-7561772.459439034</v>
+      </c>
+      <c r="H480" t="n">
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J480" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="K480" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="C470" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D470" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E470" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="F470" t="n">
-        <v>69084.87</v>
-      </c>
-      <c r="G470" t="n">
-        <v>-7405881.194439033</v>
-      </c>
-      <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J470" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
-      <c r="M470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="C471" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D471" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E471" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="F471" t="n">
-        <v>122150.06</v>
-      </c>
-      <c r="G471" t="n">
-        <v>-7405881.194439033</v>
-      </c>
-      <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J471" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L471" t="n">
-        <v>1</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="C472" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D472" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E472" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="F472" t="n">
-        <v>54567.035</v>
-      </c>
-      <c r="G472" t="n">
-        <v>-7405881.194439033</v>
-      </c>
-      <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J472" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="C473" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="D473" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E473" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="F473" t="n">
-        <v>109134.07</v>
-      </c>
-      <c r="G473" t="n">
-        <v>-7515015.264439033</v>
-      </c>
-      <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J473" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="C474" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D474" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E474" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="F474" t="n">
-        <v>47057.81</v>
-      </c>
-      <c r="G474" t="n">
-        <v>-7467957.454439034</v>
-      </c>
-      <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="J474" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="C475" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D475" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E475" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="F475" t="n">
-        <v>37546.125</v>
-      </c>
-      <c r="G475" t="n">
-        <v>-7467957.454439034</v>
-      </c>
-      <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J475" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="C476" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="D476" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E476" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="F476" t="n">
-        <v>106130.38</v>
-      </c>
-      <c r="G476" t="n">
-        <v>-7574087.834439034</v>
-      </c>
-      <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J476" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="C477" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D477" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E477" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="F477" t="n">
-        <v>64078.72</v>
-      </c>
-      <c r="G477" t="n">
-        <v>-7510009.114439034</v>
-      </c>
-      <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="J477" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="C478" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D478" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E478" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="F478" t="n">
-        <v>38547.355</v>
-      </c>
-      <c r="G478" t="n">
-        <v>-7510009.114439034</v>
-      </c>
-      <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J478" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="C479" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D479" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="E479" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="F479" t="n">
-        <v>77094.71000000001</v>
-      </c>
-      <c r="G479" t="n">
-        <v>-7510009.114439034</v>
-      </c>
-      <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J479" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>3.174</v>
-      </c>
-      <c r="C480" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="D480" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="E480" t="n">
-        <v>3.174</v>
-      </c>
-      <c r="F480" t="n">
-        <v>51763.345</v>
-      </c>
-      <c r="G480" t="n">
-        <v>-7561772.459439034</v>
-      </c>
-      <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="J480" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16370,7 +16290,7 @@
         <v>3.175</v>
       </c>
       <c r="J481" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16411,7 +16331,7 @@
         <v>3.174</v>
       </c>
       <c r="J482" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16452,7 +16372,7 @@
         <v>3.175</v>
       </c>
       <c r="J483" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16493,7 +16413,7 @@
         <v>3.174</v>
       </c>
       <c r="J484" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16534,7 +16454,7 @@
         <v>3.175</v>
       </c>
       <c r="J485" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16575,7 +16495,7 @@
         <v>3.175</v>
       </c>
       <c r="J486" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16616,7 +16536,7 @@
         <v>3.176</v>
       </c>
       <c r="J487" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16657,7 +16577,7 @@
         <v>3.174</v>
       </c>
       <c r="J488" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16698,7 +16618,7 @@
         <v>3.176</v>
       </c>
       <c r="J489" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16739,7 +16659,7 @@
         <v>3.174</v>
       </c>
       <c r="J490" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -16780,7 +16700,7 @@
         <v>3.173</v>
       </c>
       <c r="J491" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -16821,7 +16741,7 @@
         <v>3.173</v>
       </c>
       <c r="J492" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -16862,7 +16782,7 @@
         <v>3.175</v>
       </c>
       <c r="J493" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -16897,11 +16817,13 @@
         <v>-7717163.109439033</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>3.174</v>
+      </c>
       <c r="J494" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -16942,7 +16864,7 @@
         <v>3.173</v>
       </c>
       <c r="J495" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -16983,7 +16905,7 @@
         <v>3.174</v>
       </c>
       <c r="J496" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17024,7 +16946,7 @@
         <v>3.176</v>
       </c>
       <c r="J497" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17059,11 +16981,13 @@
         <v>-7657089.309439034</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>3.174</v>
+      </c>
       <c r="J498" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17104,7 +17028,7 @@
         <v>3.176</v>
       </c>
       <c r="J499" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17139,11 +17063,13 @@
         <v>-7705148.349439034</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>3.173</v>
+      </c>
       <c r="J500" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17184,7 +17110,7 @@
         <v>3.173</v>
       </c>
       <c r="J501" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17219,11 +17145,13 @@
         <v>-7624849.949439034</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>3.177</v>
+      </c>
       <c r="J502" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17258,11 +17186,13 @@
         <v>-7751004.929439034</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>3.177</v>
+      </c>
       <c r="J503" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17297,11 +17227,13 @@
         <v>-7655803.120839034</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>3.176</v>
+      </c>
       <c r="J504" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17342,7 +17274,7 @@
         <v>3.177</v>
       </c>
       <c r="J505" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17377,11 +17309,13 @@
         <v>-7287928.089439034</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>3.18</v>
+      </c>
       <c r="J506" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17420,7 +17354,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17459,7 +17393,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17498,7 +17432,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17537,7 +17471,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17576,7 +17510,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17615,7 +17549,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17654,7 +17588,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17693,7 +17627,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17732,7 +17666,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17771,7 +17705,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -17810,7 +17744,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -17849,7 +17783,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -17888,7 +17822,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -17927,7 +17861,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -17962,11 +17896,13 @@
         <v>-6983345.931439035</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>3.185</v>
+      </c>
       <c r="J521" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18005,7 +17941,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18044,7 +17980,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18083,7 +18019,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18122,7 +18058,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18161,7 +18097,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18200,7 +18136,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18239,7 +18175,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18278,7 +18214,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18317,7 +18253,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18356,7 +18292,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18395,7 +18331,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18434,7 +18370,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18473,7 +18409,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18512,7 +18448,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18551,7 +18487,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18590,7 +18526,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18629,7 +18565,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18668,7 +18604,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18707,7 +18643,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18746,7 +18682,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -18785,7 +18721,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -18824,7 +18760,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -18863,7 +18799,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -18902,7 +18838,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -18941,7 +18877,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -18980,7 +18916,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19019,7 +18955,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19058,7 +18994,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19097,7 +19033,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19136,7 +19072,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19175,7 +19111,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19214,7 +19150,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19253,7 +19189,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19292,7 +19228,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19331,7 +19267,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19370,7 +19306,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19409,7 +19345,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19448,7 +19384,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19487,7 +19423,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19526,7 +19462,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19565,7 +19501,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19604,7 +19540,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19643,7 +19579,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19682,7 +19618,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19721,7 +19657,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19760,7 +19696,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19799,7 +19735,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -19838,7 +19774,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -19877,7 +19813,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -19916,7 +19852,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -19955,7 +19891,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -19994,7 +19930,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -20033,7 +19969,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20072,7 +20008,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20111,7 +20047,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20150,7 +20086,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20189,7 +20125,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20228,7 +20164,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20267,7 +20203,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20306,7 +20242,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20345,7 +20281,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20384,7 +20320,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20423,7 +20359,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20462,7 +20398,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20501,7 +20437,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20540,7 +20476,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20579,7 +20515,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20618,7 +20554,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20657,7 +20593,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20696,7 +20632,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20735,7 +20671,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20774,7 +20710,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20813,7 +20749,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20852,7 +20788,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20891,7 +20827,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20930,7 +20866,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20969,7 +20905,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -21008,7 +20944,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -21047,7 +20983,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -21086,7 +21022,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -21125,7 +21061,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -21164,7 +21100,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -21203,7 +21139,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21242,7 +21178,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21281,7 +21217,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21320,7 +21256,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21359,7 +21295,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21398,7 +21334,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21437,7 +21373,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -21476,7 +21412,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -21515,7 +21451,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -21554,7 +21490,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -21593,7 +21529,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -21632,7 +21568,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -21671,7 +21607,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -21710,7 +21646,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -21749,7 +21685,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -21788,7 +21724,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -21827,7 +21763,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -21866,7 +21802,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21905,7 +21841,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21944,7 +21880,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21983,7 +21919,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -22022,7 +21958,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -22061,7 +21997,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -22100,7 +22036,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -22139,7 +22075,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -22178,7 +22114,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22217,7 +22153,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22256,7 +22192,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22295,7 +22231,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -22334,7 +22270,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -22373,7 +22309,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22412,7 +22348,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22451,7 +22387,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -22490,7 +22426,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -22529,7 +22465,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -22568,7 +22504,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -22607,7 +22543,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -22646,7 +22582,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -22685,7 +22621,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -22724,7 +22660,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22763,7 +22699,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -22802,7 +22738,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -22841,7 +22777,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22880,7 +22816,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22919,7 +22855,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22958,7 +22894,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22997,7 +22933,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -23036,7 +22972,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -23075,7 +23011,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -23114,7 +23050,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -23153,7 +23089,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -23192,7 +23128,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -23231,7 +23167,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -23270,7 +23206,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -23309,7 +23245,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -23348,7 +23284,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -23387,7 +23323,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -23426,7 +23362,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -23465,7 +23401,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -23504,7 +23440,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23543,7 +23479,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -23582,7 +23518,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -23621,7 +23557,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -23660,7 +23596,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -23699,7 +23635,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23738,7 +23674,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23777,7 +23713,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -23816,7 +23752,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23855,7 +23791,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23894,7 +23830,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23933,7 +23869,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23972,7 +23908,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -24011,7 +23947,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -24046,19 +23982,19 @@
         <v>-337838.8922390346</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>3.176</v>
+        <v>3.175</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L677" t="n">
-        <v>1</v>
+        <v>1.007913385826772</v>
       </c>
       <c r="M677" t="inlineStr"/>
     </row>
@@ -24085,17 +24021,11 @@
         <v>-337838.8922390346</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24124,17 +24054,11 @@
         <v>-797765.6692390346</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24163,17 +24087,11 @@
         <v>-720470.7132390346</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24202,17 +24120,11 @@
         <v>-760920.4052390347</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24241,17 +24153,11 @@
         <v>-847827.1692390346</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24280,17 +24186,11 @@
         <v>-924736.3238390347</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24322,14 +24222,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24361,14 +24255,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24400,14 +24288,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24439,14 +24321,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24478,14 +24354,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24517,14 +24387,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24556,14 +24420,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24595,14 +24453,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24634,14 +24486,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24673,14 +24519,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24712,14 +24552,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24751,14 +24585,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24790,14 +24618,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24829,14 +24651,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24865,17 +24681,11 @@
         <v>-774191.3818390347</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24904,17 +24714,11 @@
         <v>-677672.8098390347</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24943,17 +24747,11 @@
         <v>-597974.9018390346</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24982,17 +24780,11 @@
         <v>-656046.2418390346</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25024,14 +24816,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25063,14 +24849,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25102,14 +24882,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25141,16 +24915,10 @@
         <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
-        <v>0.9984634760705288</v>
+        <v>1</v>
       </c>
       <c r="M705" t="inlineStr"/>
     </row>
@@ -25210,7 +24978,7 @@
         <v>-593539.8638390347</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25243,7 +25011,7 @@
         <v>-642800.3798390348</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25276,7 +25044,7 @@
         <v>-642800.3798390348</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25903,7 +25671,7 @@
         <v>-498744.4708390348</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26035,7 +25803,7 @@
         <v>-566427.6188390348</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26068,7 +25836,7 @@
         <v>-504746.9199390348</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26101,7 +25869,7 @@
         <v>-437063.7719390348</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26134,7 +25902,7 @@
         <v>-540791.1999390348</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26167,7 +25935,7 @@
         <v>-472307.0679390348</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26200,7 +25968,7 @@
         <v>-424648.5199390348</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26233,7 +26001,7 @@
         <v>-505147.4119390348</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26266,7 +26034,7 @@
         <v>-409429.8239390348</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26299,7 +26067,7 @@
         <v>-515271.8499390348</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26332,7 +26100,7 @@
         <v>-468414.2859390348</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26365,7 +26133,7 @@
         <v>-568136.7939390348</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26398,7 +26166,7 @@
         <v>-536497.9259390348</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26431,7 +26199,7 @@
         <v>-624205.6739390348</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26464,7 +26232,7 @@
         <v>-492844.2979390348</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26497,7 +26265,7 @@
         <v>-492844.2979390348</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26530,7 +26298,7 @@
         <v>-598974.6779390348</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26563,7 +26331,7 @@
         <v>-516072.8339390348</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26596,7 +26364,7 @@
         <v>-558925.4779390348</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26629,7 +26397,7 @@
         <v>-519276.7699390348</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26662,7 +26430,7 @@
         <v>-443583.7819390348</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26695,7 +26463,7 @@
         <v>-468673.3876390348</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26728,7 +26496,7 @@
         <v>-293257.8916390348</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26761,7 +26529,7 @@
         <v>-360140.0556390348</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26794,7 +26562,7 @@
         <v>-190331.4476390348</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26827,7 +26595,7 @@
         <v>-246596.8836390348</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26860,7 +26628,7 @@
         <v>-174908.8156390348</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26893,7 +26661,7 @@
         <v>-96812.87563903481</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26926,7 +26694,7 @@
         <v>-53159.24763903482</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26959,7 +26727,7 @@
         <v>-53159.24763903482</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26992,7 +26760,7 @@
         <v>20931.77236096519</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27025,7 +26793,7 @@
         <v>-24323.82363903481</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27058,7 +26826,7 @@
         <v>64985.89236096519</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27091,7 +26859,7 @@
         <v>64985.89236096519</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27124,7 +26892,7 @@
         <v>165509.3843609652</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27157,7 +26925,7 @@
         <v>105836.0763609652</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27190,7 +26958,7 @@
         <v>175922.1763609652</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27223,7 +26991,7 @@
         <v>10919.47236096521</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27256,7 +27024,7 @@
         <v>-22321.36363903479</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27289,7 +27057,7 @@
         <v>-94810.41563903479</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27322,7 +27090,7 @@
         <v>-35938.09163903479</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27355,7 +27123,7 @@
         <v>-170503.4036390348</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27388,7 +27156,7 @@
         <v>-124446.8236390348</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27421,7 +27189,7 @@
         <v>-201741.7796390348</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27454,7 +27222,7 @@
         <v>-201741.7796390348</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27487,7 +27255,7 @@
         <v>-202743.0096390348</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27520,7 +27288,7 @@
         <v>-126249.0376390348</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27586,7 +27354,7 @@
         <v>-198978.9490390348</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27685,7 +27453,7 @@
         <v>79362.99096096515</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27718,7 +27486,7 @@
         <v>-79231.84103903484</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27751,7 +27519,7 @@
         <v>15684.76296096516</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27784,7 +27552,7 @@
         <v>53731.50296096516</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27817,7 +27585,7 @@
         <v>-29042.18403903484</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27850,7 +27618,7 @@
         <v>69078.35596096516</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27883,7 +27651,7 @@
         <v>-40255.96003903485</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27916,7 +27684,7 @@
         <v>53859.65996096515</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27949,7 +27717,7 @@
         <v>-1007.744039034857</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27982,7 +27750,7 @@
         <v>95510.82796096514</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28015,7 +27783,7 @@
         <v>15812.91996096514</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28081,7 +27849,7 @@
         <v>-18629.39203903486</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28114,7 +27882,7 @@
         <v>17014.39596096514</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28444,7 +28212,7 @@
         <v>-102796.7910390349</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -32932,10 +32700,14 @@
         <v>-5451081.839739036</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="J941" t="n">
+        <v>3.132</v>
+      </c>
       <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
@@ -32965,11 +32737,19 @@
         <v>-5344150.475739036</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="J942" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32998,11 +32778,19 @@
         <v>-5407027.719739036</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="J943" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -33031,11 +32819,19 @@
         <v>-5058348.126739035</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="J944" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33064,11 +32860,19 @@
         <v>-5136444.066739036</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="J945" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33097,11 +32901,19 @@
         <v>-5092790.438739036</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="J946" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33130,11 +32942,19 @@
         <v>-5092790.438739036</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="J947" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33163,11 +32983,19 @@
         <v>-5166881.458739036</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="J948" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33196,11 +33024,19 @@
         <v>-5121625.862739036</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="J949" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33229,11 +33065,19 @@
         <v>-5032316.146739036</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>3.145</v>
+      </c>
+      <c r="J950" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33262,11 +33106,19 @@
         <v>-5032316.146739036</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="J951" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33298,8 +33150,14 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33328,11 +33186,19 @@
         <v>-4931095.798739036</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J953" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33361,11 +33227,19 @@
         <v>-5092894.566739036</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J954" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33397,8 +33271,14 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33430,8 +33310,14 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33460,11 +33346,19 @@
         <v>-4980356.314739035</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="J957" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33496,8 +33390,14 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33526,11 +33426,19 @@
         <v>-5039228.638739035</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="J959" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33559,11 +33467,19 @@
         <v>-4949117.938739035</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="J960" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33592,11 +33508,19 @@
         <v>-4903061.358739035</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="J961" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33628,8 +33552,14 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33661,8 +33591,14 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33694,8 +33630,14 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33724,11 +33666,19 @@
         <v>-5714102.753839036</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="J965" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33760,8 +33710,14 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33790,11 +33746,19 @@
         <v>-5661638.301839035</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="J967" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33826,8 +33790,14 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33856,11 +33826,19 @@
         <v>-5770171.633839035</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="J969" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33892,8 +33870,14 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33922,11 +33906,19 @@
         <v>-5726117.513839035</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="J971" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33955,11 +33947,19 @@
         <v>-5726117.513839035</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="J972" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33988,11 +33988,19 @@
         <v>-5688070.773839035</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="J973" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -34021,11 +34029,19 @@
         <v>-5605969.913839035</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="J974" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34054,11 +34070,19 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="J975" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34087,11 +34111,19 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="J976" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34120,11 +34152,19 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="J977" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34153,11 +34193,19 @@
         <v>-5717707.181839035</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="J978" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34186,11 +34234,19 @@
         <v>-5797405.089839035</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="J979" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34222,8 +34278,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34255,8 +34317,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34288,8 +34356,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34321,8 +34395,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34354,8 +34434,14 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34387,8 +34473,14 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34417,11 +34509,17 @@
         <v>-5764935.101839035</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34450,11 +34548,17 @@
         <v>-3869320.578339035</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34483,11 +34587,17 @@
         <v>-3868320.578339035</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34516,11 +34626,17 @@
         <v>-4975616.170239035</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
